--- a/data-migration/xlsx_1900-/1909_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1909_Winter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A7F3B-A9B4-474B-8C5D-3DF1D8A6A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB786A-1E79-4A92-95C7-634E208C0D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1212">
   <si>
     <t>Winter</t>
   </si>
@@ -3666,6 +3666,9 @@
   </si>
   <si>
     <t>pestalozzi_r</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4018,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,7 +8567,7 @@
         <v>1104</v>
       </c>
       <c r="I172" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -8590,7 +8593,7 @@
         <v>1104</v>
       </c>
       <c r="I173" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -8616,7 +8619,7 @@
         <v>1104</v>
       </c>
       <c r="I174" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -8642,7 +8645,7 @@
         <v>1105</v>
       </c>
       <c r="I175" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -8668,7 +8671,7 @@
         <v>1105</v>
       </c>
       <c r="I176" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -8694,7 +8697,7 @@
         <v>1105</v>
       </c>
       <c r="I177" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -8720,7 +8723,7 @@
         <v>1105</v>
       </c>
       <c r="I178" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -8746,7 +8749,7 @@
         <v>1205</v>
       </c>
       <c r="I179" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8771,8 +8774,8 @@
       <c r="H180" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="I180" s="3" t="s">
-        <v>1190</v>
+      <c r="I180" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1909_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1909_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB786A-1E79-4A92-95C7-634E208C0D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB34248-A5DD-494C-AEB9-F2BF25E683E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1211">
   <si>
     <t>Winter</t>
   </si>
@@ -3620,15 +3620,9 @@
     <t>Rektor</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
-    <t>AO</t>
-  </si>
-  <si>
     <t>schinz_h</t>
   </si>
   <si>
@@ -3669,6 +3663,9 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -3710,11 +3707,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4021,21 +4016,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="E129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I129" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1909</v>
       </c>
@@ -4061,7 +4056,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1909</v>
       </c>
@@ -4087,7 +4082,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1909</v>
       </c>
@@ -4113,7 +4108,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1909</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1909</v>
       </c>
@@ -4165,7 +4160,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1909</v>
       </c>
@@ -4191,7 +4186,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1909</v>
       </c>
@@ -4217,7 +4212,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1909</v>
       </c>
@@ -4243,7 +4238,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1909</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1909</v>
       </c>
@@ -4327,7 +4322,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1909</v>
       </c>
@@ -4353,7 +4348,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1909</v>
       </c>
@@ -4379,7 +4374,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1909</v>
       </c>
@@ -4405,7 +4400,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1909</v>
       </c>
@@ -4431,7 +4426,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1909</v>
       </c>
@@ -4457,7 +4452,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1909</v>
       </c>
@@ -4483,7 +4478,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1909</v>
       </c>
@@ -4509,7 +4504,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1909</v>
       </c>
@@ -4535,7 +4530,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1909</v>
       </c>
@@ -4561,7 +4556,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1909</v>
       </c>
@@ -4590,7 +4585,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1909</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1909</v>
       </c>
@@ -4645,7 +4640,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1909</v>
       </c>
@@ -4671,7 +4666,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1909</v>
       </c>
@@ -4700,7 +4695,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1909</v>
       </c>
@@ -4726,7 +4721,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1909</v>
       </c>
@@ -4752,7 +4747,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1909</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1909</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1909</v>
       </c>
@@ -4827,13 +4822,13 @@
         <v>1059</v>
       </c>
       <c r="I30" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="J30" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1909</v>
       </c>
@@ -4859,7 +4854,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1909</v>
       </c>
@@ -4885,7 +4880,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1909</v>
       </c>
@@ -4911,7 +4906,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1909</v>
       </c>
@@ -4937,7 +4932,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1909</v>
       </c>
@@ -4963,7 +4958,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1909</v>
       </c>
@@ -4989,7 +4984,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1909</v>
       </c>
@@ -5015,7 +5010,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1909</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1909</v>
       </c>
@@ -5067,7 +5062,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1909</v>
       </c>
@@ -5093,7 +5088,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1909</v>
       </c>
@@ -5113,39 +5108,39 @@
         <v>837</v>
       </c>
       <c r="H41" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="I41" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1909</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>1185</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>445</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>838</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>1063</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1909</v>
       </c>
@@ -5171,7 +5166,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1909</v>
       </c>
@@ -5194,13 +5189,13 @@
         <v>1059</v>
       </c>
       <c r="I44" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="J44" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1909</v>
       </c>
@@ -5226,7 +5221,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1909</v>
       </c>
@@ -5249,13 +5244,13 @@
         <v>1059</v>
       </c>
       <c r="I46" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="J46" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1909</v>
       </c>
@@ -5281,7 +5276,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1909</v>
       </c>
@@ -5307,7 +5302,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1909</v>
       </c>
@@ -5333,7 +5328,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1909</v>
       </c>
@@ -5359,7 +5354,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1909</v>
       </c>
@@ -5385,7 +5380,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1909</v>
       </c>
@@ -5405,13 +5400,13 @@
         <v>848</v>
       </c>
       <c r="H52" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I52" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1909</v>
       </c>
@@ -5437,7 +5432,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1909</v>
       </c>
@@ -5463,7 +5458,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1909</v>
       </c>
@@ -5489,7 +5484,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1909</v>
       </c>
@@ -5512,10 +5507,10 @@
         <v>1068</v>
       </c>
       <c r="I56" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1909</v>
       </c>
@@ -5538,10 +5533,10 @@
         <v>1068</v>
       </c>
       <c r="I57" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1909</v>
       </c>
@@ -5567,7 +5562,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1909</v>
       </c>
@@ -5593,7 +5588,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1909</v>
       </c>
@@ -5616,10 +5611,10 @@
         <v>1070</v>
       </c>
       <c r="I60" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1909</v>
       </c>
@@ -5642,10 +5637,10 @@
         <v>1070</v>
       </c>
       <c r="I61" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1909</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1909</v>
       </c>
@@ -5697,7 +5692,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1909</v>
       </c>
@@ -5723,7 +5718,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1909</v>
       </c>
@@ -5749,7 +5744,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1909</v>
       </c>
@@ -5775,7 +5770,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1909</v>
       </c>
@@ -5801,7 +5796,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1909</v>
       </c>
@@ -5827,7 +5822,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1909</v>
       </c>
@@ -5853,7 +5848,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1909</v>
       </c>
@@ -5879,7 +5874,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1909</v>
       </c>
@@ -5905,7 +5900,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1909</v>
       </c>
@@ -5931,7 +5926,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1909</v>
       </c>
@@ -5957,7 +5952,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1909</v>
       </c>
@@ -5980,10 +5975,10 @@
         <v>1068</v>
       </c>
       <c r="I74" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1909</v>
       </c>
@@ -6009,97 +6004,97 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1909</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>1185</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
         <v>479</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>866</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" t="s">
         <v>1074</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="I76" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1909</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>1185</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" t="s">
         <v>480</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>867</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" t="s">
         <v>1075</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="I77" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1909</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
         <v>81</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>1186</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" t="s">
         <v>481</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>868</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" t="s">
         <v>1076</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="K78" s="1" t="s">
+      <c r="I78" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K78" t="s">
         <v>1077</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" t="s">
         <v>1191</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" t="s">
         <v>1079</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="N78" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1909</v>
       </c>
@@ -6121,11 +6116,11 @@
       <c r="H79" t="s">
         <v>1076</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1909</v>
       </c>
@@ -6147,11 +6142,11 @@
       <c r="H80" t="s">
         <v>1076</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1909</v>
       </c>
@@ -6173,11 +6168,11 @@
       <c r="H81" t="s">
         <v>1077</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1909</v>
       </c>
@@ -6199,11 +6194,11 @@
       <c r="H82" t="s">
         <v>1077</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1909</v>
       </c>
@@ -6225,11 +6220,11 @@
       <c r="H83" t="s">
         <v>1078</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1909</v>
       </c>
@@ -6251,11 +6246,11 @@
       <c r="H84" t="s">
         <v>1079</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1909</v>
       </c>
@@ -6277,11 +6272,11 @@
       <c r="H85" t="s">
         <v>1079</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1909</v>
       </c>
@@ -6303,11 +6298,11 @@
       <c r="H86" t="s">
         <v>1164</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1909</v>
       </c>
@@ -6329,11 +6324,11 @@
       <c r="H87" t="s">
         <v>1164</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1909</v>
       </c>
@@ -6355,11 +6350,11 @@
       <c r="H88" t="s">
         <v>1080</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1909</v>
       </c>
@@ -6381,11 +6376,11 @@
       <c r="H89" t="s">
         <v>1080</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1909</v>
       </c>
@@ -6407,11 +6402,11 @@
       <c r="H90" t="s">
         <v>1080</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1909</v>
       </c>
@@ -6433,11 +6428,11 @@
       <c r="H91" t="s">
         <v>1080</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1909</v>
       </c>
@@ -6459,11 +6454,11 @@
       <c r="H92" t="s">
         <v>1080</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1909</v>
       </c>
@@ -6485,11 +6480,11 @@
       <c r="H93" t="s">
         <v>1081</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1909</v>
       </c>
@@ -6511,11 +6506,11 @@
       <c r="H94" t="s">
         <v>1165</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1909</v>
       </c>
@@ -6537,11 +6532,11 @@
       <c r="H95" t="s">
         <v>1165</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -6563,11 +6558,11 @@
       <c r="H96" t="s">
         <v>1167</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1909</v>
       </c>
@@ -6589,11 +6584,11 @@
       <c r="H97" t="s">
         <v>1167</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1909</v>
       </c>
@@ -6615,11 +6610,11 @@
       <c r="H98" t="s">
         <v>1167</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1909</v>
       </c>
@@ -6641,11 +6636,11 @@
       <c r="H99" t="s">
         <v>1167</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1909</v>
       </c>
@@ -6667,11 +6662,11 @@
       <c r="H100" t="s">
         <v>1083</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1909</v>
       </c>
@@ -6700,7 +6695,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1909</v>
       </c>
@@ -6729,7 +6724,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1909</v>
       </c>
@@ -6758,7 +6753,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1909</v>
       </c>
@@ -6787,7 +6782,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1909</v>
       </c>
@@ -6816,7 +6811,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1909</v>
       </c>
@@ -6842,7 +6837,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1909</v>
       </c>
@@ -6868,7 +6863,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1909</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1909</v>
       </c>
@@ -6920,7 +6915,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1909</v>
       </c>
@@ -6946,7 +6941,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1909</v>
       </c>
@@ -6972,7 +6967,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1909</v>
       </c>
@@ -6998,7 +6993,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1909</v>
       </c>
@@ -7024,7 +7019,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1909</v>
       </c>
@@ -7050,7 +7045,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1909</v>
       </c>
@@ -7076,7 +7071,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1909</v>
       </c>
@@ -7102,7 +7097,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1909</v>
       </c>
@@ -7128,7 +7123,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1909</v>
       </c>
@@ -7154,7 +7149,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1909</v>
       </c>
@@ -7180,7 +7175,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1909</v>
       </c>
@@ -7206,7 +7201,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1909</v>
       </c>
@@ -7232,7 +7227,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1909</v>
       </c>
@@ -7258,7 +7253,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1909</v>
       </c>
@@ -7284,7 +7279,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1909</v>
       </c>
@@ -7310,7 +7305,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1909</v>
       </c>
@@ -7336,7 +7331,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1909</v>
       </c>
@@ -7362,7 +7357,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1909</v>
       </c>
@@ -7388,7 +7383,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1909</v>
       </c>
@@ -7414,7 +7409,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1909</v>
       </c>
@@ -7440,7 +7435,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1909</v>
       </c>
@@ -7466,7 +7461,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1909</v>
       </c>
@@ -7492,7 +7487,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1909</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1909</v>
       </c>
@@ -7544,7 +7539,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1909</v>
       </c>
@@ -7570,7 +7565,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1909</v>
       </c>
@@ -7596,7 +7591,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1909</v>
       </c>
@@ -7622,7 +7617,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1909</v>
       </c>
@@ -7648,7 +7643,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1909</v>
       </c>
@@ -7662,7 +7657,7 @@
         <v>1186</v>
       </c>
       <c r="F138" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G138" t="s">
         <v>801</v>
@@ -7680,7 +7675,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1909</v>
       </c>
@@ -7712,7 +7707,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1909</v>
       </c>
@@ -7738,7 +7733,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1909</v>
       </c>
@@ -7764,7 +7759,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1909</v>
       </c>
@@ -7790,7 +7785,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1909</v>
       </c>
@@ -7816,7 +7811,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1909</v>
       </c>
@@ -7842,7 +7837,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1909</v>
       </c>
@@ -7868,7 +7863,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1909</v>
       </c>
@@ -7894,7 +7889,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1909</v>
       </c>
@@ -7920,7 +7915,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1909</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1909</v>
       </c>
@@ -7972,7 +7967,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1909</v>
       </c>
@@ -7998,7 +7993,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1909</v>
       </c>
@@ -8024,7 +8019,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1909</v>
       </c>
@@ -8050,7 +8045,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1909</v>
       </c>
@@ -8076,7 +8071,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1909</v>
       </c>
@@ -8096,13 +8091,13 @@
         <v>801</v>
       </c>
       <c r="H154" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I154" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1909</v>
       </c>
@@ -8122,39 +8117,39 @@
         <v>919</v>
       </c>
       <c r="H155" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I155" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>1909</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2" t="s">
+    <row r="156" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="H156" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="I156" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1909</v>
       </c>
@@ -8180,7 +8175,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1909</v>
       </c>
@@ -8206,7 +8201,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1909</v>
       </c>
@@ -8232,7 +8227,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1909</v>
       </c>
@@ -8258,7 +8253,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1909</v>
       </c>
@@ -8284,7 +8279,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1909</v>
       </c>
@@ -8310,7 +8305,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1909</v>
       </c>
@@ -8336,7 +8331,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1909</v>
       </c>
@@ -8362,7 +8357,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1909</v>
       </c>
@@ -8388,7 +8383,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1909</v>
       </c>
@@ -8414,7 +8409,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1909</v>
       </c>
@@ -8440,7 +8435,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1909</v>
       </c>
@@ -8460,13 +8455,13 @@
         <v>881</v>
       </c>
       <c r="H168" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I168" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1909</v>
       </c>
@@ -8492,7 +8487,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1909</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1909</v>
       </c>
@@ -8544,7 +8539,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1909</v>
       </c>
@@ -8567,10 +8562,10 @@
         <v>1104</v>
       </c>
       <c r="I172" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1909</v>
       </c>
@@ -8593,10 +8588,10 @@
         <v>1104</v>
       </c>
       <c r="I173" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1909</v>
       </c>
@@ -8619,10 +8614,10 @@
         <v>1104</v>
       </c>
       <c r="I174" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1909</v>
       </c>
@@ -8645,10 +8640,10 @@
         <v>1105</v>
       </c>
       <c r="I175" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1909</v>
       </c>
@@ -8671,10 +8666,10 @@
         <v>1105</v>
       </c>
       <c r="I176" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1909</v>
       </c>
@@ -8697,10 +8692,10 @@
         <v>1105</v>
       </c>
       <c r="I177" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1909</v>
       </c>
@@ -8723,10 +8718,10 @@
         <v>1105</v>
       </c>
       <c r="I178" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1909</v>
       </c>
@@ -8746,39 +8741,39 @@
         <v>934</v>
       </c>
       <c r="H179" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I179" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>1909</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D180" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="H180" s="3" t="s">
-        <v>1205</v>
+      <c r="H180" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="I180" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1909</v>
       </c>
@@ -8804,7 +8799,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1909</v>
       </c>
@@ -8830,7 +8825,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1909</v>
       </c>
@@ -8856,7 +8851,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1909</v>
       </c>
@@ -8882,7 +8877,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1909</v>
       </c>
@@ -8908,7 +8903,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1909</v>
       </c>
@@ -8934,7 +8929,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1909</v>
       </c>
@@ -8960,7 +8955,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1909</v>
       </c>
@@ -8986,7 +8981,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1909</v>
       </c>
@@ -9012,7 +9007,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1909</v>
       </c>
@@ -9038,7 +9033,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1909</v>
       </c>
@@ -9064,7 +9059,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1909</v>
       </c>
@@ -9090,7 +9085,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1909</v>
       </c>
@@ -9116,7 +9111,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1909</v>
       </c>
@@ -9142,7 +9137,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1909</v>
       </c>
@@ -9168,7 +9163,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1909</v>
       </c>
@@ -9194,7 +9189,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1909</v>
       </c>
@@ -9220,7 +9215,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1909</v>
       </c>
@@ -9246,7 +9241,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1909</v>
       </c>
@@ -9272,7 +9267,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1909</v>
       </c>
@@ -9298,7 +9293,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1909</v>
       </c>
@@ -9324,7 +9319,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1909</v>
       </c>
@@ -9350,7 +9345,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1909</v>
       </c>
@@ -9379,7 +9374,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1909</v>
       </c>
@@ -9408,7 +9403,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1909</v>
       </c>
@@ -9434,7 +9429,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1909</v>
       </c>
@@ -9460,33 +9455,33 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="1" t="s">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1909</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
         <v>210</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" t="s">
         <v>1187</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="F207" t="s">
         <v>607</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" t="s">
         <v>881</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="H207" t="s">
         <v>1111</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="I207" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1909</v>
       </c>
@@ -9512,7 +9507,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1909</v>
       </c>
@@ -9538,7 +9533,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1909</v>
       </c>
@@ -9564,7 +9559,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1909</v>
       </c>
@@ -9590,7 +9585,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1909</v>
       </c>
@@ -9616,7 +9611,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1909</v>
       </c>
@@ -9645,7 +9640,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1909</v>
       </c>
@@ -9671,7 +9666,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1909</v>
       </c>
@@ -9697,7 +9692,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1909</v>
       </c>
@@ -9723,7 +9718,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1909</v>
       </c>
@@ -9752,7 +9747,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1909</v>
       </c>
@@ -9772,13 +9767,13 @@
         <v>963</v>
       </c>
       <c r="H218" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="I218" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1909</v>
       </c>
@@ -9804,7 +9799,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1909</v>
       </c>
@@ -9830,7 +9825,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1909</v>
       </c>
@@ -9859,7 +9854,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1909</v>
       </c>
@@ -9885,7 +9880,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1909</v>
       </c>
@@ -9911,7 +9906,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1909</v>
       </c>
@@ -9937,7 +9932,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1909</v>
       </c>
@@ -9960,7 +9955,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1909</v>
       </c>
@@ -9989,7 +9984,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1909</v>
       </c>
@@ -10009,13 +10004,13 @@
         <v>967</v>
       </c>
       <c r="H227" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I227" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1909</v>
       </c>
@@ -10035,13 +10030,13 @@
         <v>968</v>
       </c>
       <c r="H228" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I228" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1909</v>
       </c>
@@ -10061,13 +10056,13 @@
         <v>969</v>
       </c>
       <c r="H229" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I229" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1909</v>
       </c>
@@ -10087,13 +10082,13 @@
         <v>970</v>
       </c>
       <c r="H230" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I230" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1909</v>
       </c>
@@ -10113,13 +10108,13 @@
         <v>971</v>
       </c>
       <c r="H231" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I231" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1909</v>
       </c>
@@ -10145,7 +10140,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1909</v>
       </c>
@@ -10171,7 +10166,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1909</v>
       </c>
@@ -10197,7 +10192,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1909</v>
       </c>
@@ -10223,7 +10218,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1909</v>
       </c>
@@ -10249,7 +10244,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1909</v>
       </c>
@@ -10275,7 +10270,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1909</v>
       </c>
@@ -10301,7 +10296,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1909</v>
       </c>
@@ -10327,7 +10322,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1909</v>
       </c>
@@ -10353,7 +10348,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1909</v>
       </c>
@@ -10379,7 +10374,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1909</v>
       </c>
@@ -10405,7 +10400,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1909</v>
       </c>
@@ -10431,7 +10426,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1909</v>
       </c>
@@ -10457,7 +10452,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1909</v>
       </c>
@@ -10483,7 +10478,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1909</v>
       </c>
@@ -10509,7 +10504,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1909</v>
       </c>
@@ -10535,7 +10530,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1909</v>
       </c>
@@ -10555,13 +10550,13 @@
         <v>804</v>
       </c>
       <c r="H248" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I248" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1909</v>
       </c>
@@ -10581,13 +10576,13 @@
         <v>837</v>
       </c>
       <c r="H249" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I249" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1909</v>
       </c>
@@ -10607,13 +10602,13 @@
         <v>930</v>
       </c>
       <c r="H250" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I250" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1909</v>
       </c>
@@ -10639,7 +10634,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1909</v>
       </c>
@@ -10665,7 +10660,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1909</v>
       </c>
@@ -10691,7 +10686,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1909</v>
       </c>
@@ -10717,7 +10712,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1909</v>
       </c>
@@ -10743,7 +10738,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1909</v>
       </c>
@@ -10769,7 +10764,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1909</v>
       </c>
@@ -10789,13 +10784,13 @@
         <v>801</v>
       </c>
       <c r="H257" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I257" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1909</v>
       </c>
@@ -10821,7 +10816,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1909</v>
       </c>
@@ -10847,7 +10842,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1909</v>
       </c>
@@ -10873,7 +10868,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1909</v>
       </c>
@@ -10899,7 +10894,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1909</v>
       </c>
@@ -10925,7 +10920,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1909</v>
       </c>
@@ -10951,7 +10946,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1909</v>
       </c>
@@ -10977,7 +10972,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1909</v>
       </c>
@@ -11003,7 +10998,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1909</v>
       </c>
@@ -11029,7 +11024,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1909</v>
       </c>
@@ -11055,7 +11050,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1909</v>
       </c>
@@ -11081,7 +11076,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1909</v>
       </c>
@@ -11107,7 +11102,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1909</v>
       </c>
@@ -11133,7 +11128,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1909</v>
       </c>
@@ -11162,7 +11157,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1909</v>
       </c>
@@ -11191,7 +11186,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1909</v>
       </c>
@@ -11217,7 +11212,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1909</v>
       </c>
@@ -11243,7 +11238,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1909</v>
       </c>
@@ -11269,7 +11264,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1909</v>
       </c>
@@ -11295,7 +11290,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1909</v>
       </c>
@@ -11321,7 +11316,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1909</v>
       </c>
@@ -11347,7 +11342,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1909</v>
       </c>
@@ -11373,7 +11368,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1909</v>
       </c>
@@ -11399,7 +11394,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1909</v>
       </c>
@@ -11425,7 +11420,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1909</v>
       </c>
@@ -11451,7 +11446,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1909</v>
       </c>
@@ -11477,7 +11472,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1909</v>
       </c>
@@ -11503,7 +11498,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1909</v>
       </c>
@@ -11529,7 +11524,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1909</v>
       </c>
@@ -11555,7 +11550,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1909</v>
       </c>
@@ -11575,13 +11570,13 @@
         <v>1000</v>
       </c>
       <c r="H287" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I287" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1909</v>
       </c>
@@ -11601,13 +11596,13 @@
         <v>909</v>
       </c>
       <c r="H288" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I288" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1909</v>
       </c>
@@ -11633,7 +11628,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1909</v>
       </c>
@@ -11659,7 +11654,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1909</v>
       </c>
@@ -11685,7 +11680,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1909</v>
       </c>
@@ -11705,13 +11700,13 @@
         <v>1001</v>
       </c>
       <c r="H292" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I292" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1909</v>
       </c>
@@ -11737,7 +11732,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1909</v>
       </c>
@@ -11763,7 +11758,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1909</v>
       </c>
@@ -11789,7 +11784,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1909</v>
       </c>
@@ -11815,7 +11810,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1909</v>
       </c>
@@ -11844,7 +11839,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1909</v>
       </c>
@@ -11870,7 +11865,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1909</v>
       </c>
@@ -11896,7 +11891,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1909</v>
       </c>
@@ -11922,7 +11917,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1909</v>
       </c>
@@ -11948,7 +11943,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1909</v>
       </c>
@@ -11974,7 +11969,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1909</v>
       </c>
@@ -11994,13 +11989,13 @@
         <v>966</v>
       </c>
       <c r="H303" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I303" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1909</v>
       </c>
@@ -12020,13 +12015,13 @@
         <v>988</v>
       </c>
       <c r="H304" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I304" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1909</v>
       </c>
@@ -12052,7 +12047,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1909</v>
       </c>
@@ -12078,7 +12073,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1909</v>
       </c>
@@ -12104,7 +12099,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1909</v>
       </c>
@@ -12130,7 +12125,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1909</v>
       </c>
@@ -12156,7 +12151,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1909</v>
       </c>
@@ -12182,7 +12177,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1909</v>
       </c>
@@ -12208,7 +12203,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1909</v>
       </c>
@@ -12234,7 +12229,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1909</v>
       </c>
@@ -12260,7 +12255,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1909</v>
       </c>
@@ -12286,33 +12281,33 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
-        <v>1909</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D315" s="3" t="s">
+    <row r="315" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E315" s="3" t="s">
+      <c r="E315" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="F315" s="3" t="s">
+      <c r="F315" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G315" s="3" t="s">
+      <c r="G315" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="H315" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="I315" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1909</v>
       </c>
@@ -12338,7 +12333,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1909</v>
       </c>
@@ -12364,7 +12359,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1909</v>
       </c>
@@ -12390,7 +12385,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1909</v>
       </c>
@@ -12416,7 +12411,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1909</v>
       </c>
@@ -12442,7 +12437,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1909</v>
       </c>
@@ -12468,7 +12463,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1909</v>
       </c>
@@ -12494,7 +12489,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1909</v>
       </c>
@@ -12520,7 +12515,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1909</v>
       </c>
@@ -12546,7 +12541,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1909</v>
       </c>
@@ -12575,7 +12570,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1909</v>
       </c>
@@ -12604,7 +12599,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1909</v>
       </c>
@@ -12633,7 +12628,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1909</v>
       </c>
@@ -12662,7 +12657,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1909</v>
       </c>
@@ -12691,7 +12686,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1909</v>
       </c>
@@ -12720,7 +12715,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1909</v>
       </c>
@@ -12746,7 +12741,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1909</v>
       </c>
@@ -12772,7 +12767,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1909</v>
       </c>
@@ -12798,7 +12793,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1909</v>
       </c>
@@ -12824,7 +12819,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1909</v>
       </c>
@@ -12850,7 +12845,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1909</v>
       </c>
@@ -12876,7 +12871,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1909</v>
       </c>
@@ -12902,7 +12897,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1909</v>
       </c>
@@ -12928,7 +12923,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1909</v>
       </c>
@@ -12954,7 +12949,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1909</v>
       </c>
@@ -12980,7 +12975,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1909</v>
       </c>
@@ -13006,7 +13001,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1909</v>
       </c>
@@ -13032,7 +13027,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1909</v>
       </c>
@@ -13058,7 +13053,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1909</v>
       </c>
@@ -13084,7 +13079,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1909</v>
       </c>
@@ -13110,7 +13105,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1909</v>
       </c>
@@ -13136,7 +13131,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1909</v>
       </c>
@@ -13162,7 +13157,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1909</v>
       </c>
@@ -13188,7 +13183,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1909</v>
       </c>
@@ -13214,7 +13209,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1909</v>
       </c>
@@ -13240,7 +13235,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1909</v>
       </c>
@@ -13266,7 +13261,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1909</v>
       </c>
@@ -13292,7 +13287,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1909</v>
       </c>
@@ -13318,7 +13313,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1909</v>
       </c>
@@ -13344,7 +13339,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1909</v>
       </c>
@@ -13373,7 +13368,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1909</v>
       </c>
@@ -13402,7 +13397,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1909</v>
       </c>
@@ -13431,7 +13426,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1909</v>
       </c>
@@ -13460,7 +13455,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1909</v>
       </c>
@@ -13489,7 +13484,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1909</v>
       </c>
@@ -13518,7 +13513,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1909</v>
       </c>
@@ -13547,7 +13542,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1909</v>
       </c>
@@ -13573,7 +13568,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1909</v>
       </c>
@@ -13599,7 +13594,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1909</v>
       </c>
@@ -13625,7 +13620,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1909</v>
       </c>
@@ -13645,13 +13640,13 @@
         <v>1036</v>
       </c>
       <c r="H365" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I365" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1909</v>
       </c>
@@ -13671,13 +13666,13 @@
         <v>881</v>
       </c>
       <c r="H366" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I366" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1909</v>
       </c>
@@ -13703,7 +13698,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1909</v>
       </c>
@@ -13732,7 +13727,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1909</v>
       </c>
@@ -13761,7 +13756,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1909</v>
       </c>
@@ -13790,7 +13785,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1909</v>
       </c>
@@ -13819,7 +13814,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1909</v>
       </c>
@@ -13845,7 +13840,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1909</v>
       </c>
@@ -13871,7 +13866,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1909</v>
       </c>
@@ -13897,7 +13892,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1909</v>
       </c>
@@ -13923,7 +13918,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1909</v>
       </c>
@@ -13949,7 +13944,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1909</v>
       </c>
@@ -13969,13 +13964,13 @@
         <v>1038</v>
       </c>
       <c r="H377" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I377" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1909</v>
       </c>
@@ -13995,13 +13990,13 @@
         <v>1039</v>
       </c>
       <c r="H378" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I378" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1909</v>
       </c>
@@ -14021,13 +14016,13 @@
         <v>1040</v>
       </c>
       <c r="H379" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I379" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1909</v>
       </c>
@@ -14047,13 +14042,13 @@
         <v>1041</v>
       </c>
       <c r="H380" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I380" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1909</v>
       </c>
@@ -14073,13 +14068,13 @@
         <v>1042</v>
       </c>
       <c r="H381" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I381" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1909</v>
       </c>
@@ -14105,7 +14100,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1909</v>
       </c>
@@ -14131,7 +14126,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1909</v>
       </c>
@@ -14157,7 +14152,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1909</v>
       </c>
@@ -14183,7 +14178,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1909</v>
       </c>
@@ -14209,7 +14204,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1909</v>
       </c>
@@ -14235,7 +14230,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1909</v>
       </c>
@@ -14261,7 +14256,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1909</v>
       </c>
@@ -14287,7 +14282,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1909</v>
       </c>
@@ -14313,7 +14308,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1909</v>
       </c>
@@ -14339,7 +14334,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1909</v>
       </c>
@@ -14365,7 +14360,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1909</v>
       </c>
@@ -14391,7 +14386,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1909</v>
       </c>
@@ -14417,7 +14412,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1909</v>
       </c>
@@ -14443,7 +14438,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1909</v>
       </c>
@@ -14469,7 +14464,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1909</v>
       </c>
@@ -14495,7 +14490,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1909</v>
       </c>
@@ -14521,7 +14516,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1909</v>
       </c>
@@ -14547,7 +14542,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1909</v>
       </c>
@@ -14573,7 +14568,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1909</v>
       </c>
